--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Dropbox (Team_Perie)/Jason/Admin/scBioinformaticsGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32A2056-6DA0-2E4B-81BC-F32E26DD9C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D67F38-2575-C843-B171-62CE1C441E0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5860" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -310,6 +310,21 @@
   </si>
   <si>
     <t>TranBichNgoc.Cao@curie.fr</t>
+  </si>
+  <si>
+    <t>eglantine.hector@curie.fr</t>
+  </si>
+  <si>
+    <t>joseph.josephides@curie.fr</t>
+  </si>
+  <si>
+    <t>arnaud.meng@curie.fr</t>
+  </si>
+  <si>
+    <t>Marion.Salou@curie.fr</t>
+  </si>
+  <si>
+    <t>nanour.sirab@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -723,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1204,6 +1219,31 @@
     <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Dropbox (Team_Perie)/Jason/Admin/scBioinformaticsGroup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D67F38-2575-C843-B171-62CE1C441E0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA673FA-A6EB-2246-87DF-8201C3740581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="2980" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
+    <workbookView xWindow="5000" yWindow="2500" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>nanour.sirab@curie.fr</t>
+  </si>
+  <si>
+    <t>hugo.croizer@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -738,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,6 +1247,11 @@
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Dropbox (Team_Perie)/Jason/Admin/scBioinformaticsGroup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA673FA-A6EB-2246-87DF-8201C3740581}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77769EAD-8D2F-C54C-8EEB-3802A82397A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2500" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>hugo.croizer@curie.fr</t>
+  </si>
+  <si>
+    <t>sandrine.grossetete-lalami@curie.fr</t>
+  </si>
+  <si>
+    <t>cantini@bio.ens.psl.eu</t>
   </si>
 </sst>
 </file>
@@ -741,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:A104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,6 +1258,16 @@
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77769EAD-8D2F-C54C-8EEB-3802A82397A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854B9D6-04C7-9248-803C-97BA0944C345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2500" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>cantini@bio.ens.psl.eu</t>
+  </si>
+  <si>
+    <t>luc.cabel@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -747,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A104"/>
+  <dimension ref="A1:A105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1268,6 +1271,11 @@
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854B9D6-04C7-9248-803C-97BA0944C345}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9C0C7-45E7-404A-8CC7-CC5C0D306026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2500" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>luc.cabel@curie.fr</t>
+  </si>
+  <si>
+    <t>chloe.quignot@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A105"/>
+  <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,6 +1279,11 @@
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9C0C7-45E7-404A-8CC7-CC5C0D306026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B82604F-EF38-0649-A5AA-19ABD22460FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2500" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>chloe.quignot@curie.fr</t>
+  </si>
+  <si>
+    <t>Fatima.Mechta-Grigoriou@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -753,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A106"/>
+  <dimension ref="A1:A107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,6 +1287,11 @@
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B82604F-EF38-0649-A5AA-19ABD22460FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB0C1CC-5FF1-D740-AA44-BD3499C7A4E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="2500" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
+    <workbookView xWindow="0" yWindow="4520" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Fatima.Mechta-Grigoriou@curie.fr</t>
+  </si>
+  <si>
+    <t>Emmanuel.Barillot@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A107"/>
+  <dimension ref="A1:A108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
       <selection activeCell="H106" sqref="H106"/>
@@ -1292,6 +1295,11 @@
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB0C1CC-5FF1-D740-AA44-BD3499C7A4E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0B94A8-B5BB-E64F-93B6-DB3E959076BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4520" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
+    <workbookView xWindow="0" yWindow="2920" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>Emmanuel.Barillot@curie.fr</t>
+  </si>
+  <si>
+    <t>sebastien.lemaire@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -759,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:A109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,6 +1303,11 @@
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0B94A8-B5BB-E64F-93B6-DB3E959076BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B88A411-8CEE-2743-938A-9B643305515B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2920" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -349,13 +349,16 @@
   </si>
   <si>
     <t>sebastien.lemaire@curie.fr</t>
+  </si>
+  <si>
+    <t>lucile.massenet@inserm.fr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,6 +410,12 @@
       <color theme="1"/>
       <name val="Apple Color Emoji"/>
     </font>
+    <font>
+      <sz val="17"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -429,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -447,6 +456,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -762,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A109"/>
+  <dimension ref="A1:A110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1308,6 +1318,11 @@
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B88A411-8CEE-2743-938A-9B643305515B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F18335-C34F-434F-AEB5-5C744255CD23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2920" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>lucile.massenet@inserm.fr</t>
+  </si>
+  <si>
+    <t>linda.bilonda-mutala@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -772,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A110"/>
+  <dimension ref="A1:A111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1323,6 +1326,11 @@
     <row r="110" spans="1:1" ht="22" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F18335-C34F-434F-AEB5-5C744255CD23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{703DEBFA-932F-0545-A229-F1774CD53149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2920" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -355,6 +355,9 @@
   </si>
   <si>
     <t>linda.bilonda-mutala@curie.fr</t>
+  </si>
+  <si>
+    <t>anne-laure.le-gac@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -775,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A111"/>
+  <dimension ref="A1:A112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1331,6 +1334,11 @@
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{703DEBFA-932F-0545-A229-F1774CD53149}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC5978-C710-2A40-AE62-8E3E5D35323E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2920" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -358,13 +358,16 @@
   </si>
   <si>
     <t>anne-laure.le-gac@curie.fr</t>
+  </si>
+  <si>
+    <t>coline.gardou@minosbiosciences.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -422,6 +425,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF212121"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -444,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -463,6 +472,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -778,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A112"/>
+  <dimension ref="A1:A113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1339,6 +1349,11 @@
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncosgrove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathieu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FC5978-C710-2A40-AE62-8E3E5D35323E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF22FD2-8118-144A-9844-4138284307F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2920" windowWidth="27640" windowHeight="16940" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
+    <workbookView xWindow="28800" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{786DCE9F-CAEF-3D49-9A04-15DCD17368FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Maria.Lobon-Iglesias@curie.fr</t>
   </si>
@@ -361,6 +361,15 @@
   </si>
   <si>
     <t>coline.gardou@minosbiosciences.com</t>
+  </si>
+  <si>
+    <t>juliette.soulier@curie.fr</t>
+  </si>
+  <si>
+    <t>hugo.laporte@curie.fr</t>
+  </si>
+  <si>
+    <t>maxime.dubail@curie.fr</t>
   </si>
 </sst>
 </file>
@@ -788,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E0DB1-4297-1249-B324-F894CA2A3F8C}">
-  <dimension ref="A1:A113"/>
+  <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1354,6 +1363,21 @@
     <row r="113" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -298,7 +298,7 @@
     <t xml:space="preserve">anastasia.de-poulpiquet@curie.fr</t>
   </si>
   <si>
-    <t xml:space="preserve">melissa.saichi@inserm.fr</t>
+    <t xml:space="preserve">melissa.saichi@curie.fr</t>
   </si>
   <si>
     <t xml:space="preserve">remi.montagne@curie.fr</t>
@@ -632,8 +632,8 @@
   </sheetPr>
   <dimension ref="A1:A116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A117" activeCellId="0" sqref="A117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D98" activeCellId="0" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1101,7 +1101,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>92</v>
       </c>
@@ -1245,6 +1245,7 @@
     <hyperlink ref="A78" r:id="rId25" display="Victor.Renault@curie.fr"/>
     <hyperlink ref="A85" r:id="rId26" display="silvia.lopez-lastra@curie.fr"/>
     <hyperlink ref="A92" r:id="rId27" display="alexey.vorobev@curie.fr"/>
+    <hyperlink ref="A94" r:id="rId28" display="melissa.saichi@curie"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/scBioinfoMailingList.xlsx
+++ b/scBioinfoMailingList.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">ScBioinfoMailingList</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">maxime.dubail@curie.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuna.landais@onebiosciences.fr</t>
   </si>
 </sst>
 </file>
@@ -554,13 +557,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -626,20 +629,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A116"/>
+  <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D98" activeCellId="0" sqref="D98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A118" activeCellId="0" sqref="A118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1214,6 +1214,11 @@
     <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1250,8 @@
     <hyperlink ref="A78" r:id="rId25" display="Victor.Renault@curie.fr"/>
     <hyperlink ref="A85" r:id="rId26" display="silvia.lopez-lastra@curie.fr"/>
     <hyperlink ref="A92" r:id="rId27" display="alexey.vorobev@curie.fr"/>
-    <hyperlink ref="A94" r:id="rId28" display="melissa.saichi@curie"/>
+    <hyperlink ref="A94" r:id="rId28" display="melissa.saichi@curie.fr"/>
+    <hyperlink ref="A117" r:id="rId29" display="yuna.landais@onebiosciences.fr"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
